--- a/contratos/contratos-6-2017.xlsx
+++ b/contratos/contratos-6-2017.xlsx
@@ -964,7 +964,7 @@
     <t>BASILIQUIOTIS SANTIAGO</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>CIUCIO AGUSTIN IGNACIO</t>
@@ -988,7 +988,7 @@
     <t>VALORI GUILLERMO MIGUEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1042,7 +1042,7 @@
     <t>DELALOYE FABIANA MARICEL</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FORNES DARIO A. Y FORNES CARLOS A. S.H.</t>
@@ -1183,7 +1183,7 @@
     <t>METALURGICA EL TIGRE S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1759,691 +1759,691 @@
     <t>124</t>
   </si>
   <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>5.770,00</t>
-  </si>
-  <si>
-    <t>23.160,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>6.195,00</t>
-  </si>
-  <si>
-    <t>548,00</t>
-  </si>
-  <si>
-    <t>5.307,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>3.535,00</t>
-  </si>
-  <si>
-    <t>3.923,00</t>
-  </si>
-  <si>
-    <t>910.103,20</t>
-  </si>
-  <si>
-    <t>468.713,85</t>
-  </si>
-  <si>
-    <t>52.513,95</t>
-  </si>
-  <si>
-    <t>8.750,00</t>
-  </si>
-  <si>
-    <t>47.335,00</t>
-  </si>
-  <si>
-    <t>1.889,00</t>
-  </si>
-  <si>
-    <t>14.640,00</t>
-  </si>
-  <si>
-    <t>16.278,50</t>
-  </si>
-  <si>
-    <t>9.104,05</t>
-  </si>
-  <si>
-    <t>91.713,44</t>
-  </si>
-  <si>
-    <t>779,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>30.848,63</t>
-  </si>
-  <si>
-    <t>19.769,00</t>
-  </si>
-  <si>
-    <t>3.640,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>1.431,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>3.140,00</t>
-  </si>
-  <si>
-    <t>107,85</t>
-  </si>
-  <si>
-    <t>41,90</t>
-  </si>
-  <si>
-    <t>10.096,00</t>
-  </si>
-  <si>
-    <t>34.690,94</t>
-  </si>
-  <si>
-    <t>40.074,99</t>
-  </si>
-  <si>
-    <t>16.366,53</t>
-  </si>
-  <si>
-    <t>217,14</t>
-  </si>
-  <si>
-    <t>113,00</t>
-  </si>
-  <si>
-    <t>12.220,00</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>1.924,50</t>
-  </si>
-  <si>
-    <t>9.659,79</t>
-  </si>
-  <si>
-    <t>7.098,00</t>
-  </si>
-  <si>
-    <t>2.598,00</t>
-  </si>
-  <si>
-    <t>1.674,00</t>
-  </si>
-  <si>
-    <t>19.448,00</t>
-  </si>
-  <si>
-    <t>17.454,40</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>38.712,32</t>
-  </si>
-  <si>
-    <t>21,78</t>
-  </si>
-  <si>
-    <t>5.977,76</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>1.422,25</t>
-  </si>
-  <si>
-    <t>2.140,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>7.535,50</t>
-  </si>
-  <si>
-    <t>2.110,24</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>404,20</t>
-  </si>
-  <si>
-    <t>864,08</t>
-  </si>
-  <si>
-    <t>179.676,10</t>
-  </si>
-  <si>
-    <t>8.403,75</t>
-  </si>
-  <si>
-    <t>16.874,86</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>31,00</t>
-  </si>
-  <si>
-    <t>5.887,94</t>
-  </si>
-  <si>
-    <t>393.479,78</t>
-  </si>
-  <si>
-    <t>566,00</t>
-  </si>
-  <si>
-    <t>7.783,00</t>
-  </si>
-  <si>
-    <t>3.390,52</t>
-  </si>
-  <si>
-    <t>6.040,00</t>
-  </si>
-  <si>
-    <t>74.100,00</t>
-  </si>
-  <si>
-    <t>36.028,00</t>
-  </si>
-  <si>
-    <t>33.500,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>15.920,50</t>
-  </si>
-  <si>
-    <t>7.154,00</t>
-  </si>
-  <si>
-    <t>2.501,22</t>
-  </si>
-  <si>
-    <t>1.356,75</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>903,48</t>
-  </si>
-  <si>
-    <t>16.807,92</t>
-  </si>
-  <si>
-    <t>1.172.612,00</t>
-  </si>
-  <si>
-    <t>8.660,00</t>
-  </si>
-  <si>
-    <t>7.961,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>920,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>19.810,00</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>11.810,00</t>
-  </si>
-  <si>
-    <t>192,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.354,42</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>14.908,98</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>558.358,95</t>
-  </si>
-  <si>
-    <t>37.745,32</t>
-  </si>
-  <si>
-    <t>9,47</t>
-  </si>
-  <si>
-    <t>43,44</t>
-  </si>
-  <si>
-    <t>25.896,76</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>1.178,80</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>42.818,00</t>
-  </si>
-  <si>
-    <t>348,50</t>
-  </si>
-  <si>
-    <t>8.089,87</t>
-  </si>
-  <si>
-    <t>13.498,00</t>
-  </si>
-  <si>
-    <t>3.187,80</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>1.854,00</t>
-  </si>
-  <si>
-    <t>14.607,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>15.099,38</t>
-  </si>
-  <si>
-    <t>141.137,32</t>
-  </si>
-  <si>
-    <t>531,00</t>
-  </si>
-  <si>
-    <t>7.371,00</t>
-  </si>
-  <si>
-    <t>4.813,00</t>
-  </si>
-  <si>
-    <t>7.481,09</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>1.041,00</t>
-  </si>
-  <si>
-    <t>2.493,28</t>
-  </si>
-  <si>
-    <t>178,00</t>
-  </si>
-  <si>
-    <t>392,40</t>
-  </si>
-  <si>
-    <t>3.945,00</t>
-  </si>
-  <si>
-    <t>251,16</t>
-  </si>
-  <si>
-    <t>436,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>398,31</t>
-  </si>
-  <si>
-    <t>7.960,00</t>
-  </si>
-  <si>
-    <t>8.910,00</t>
-  </si>
-  <si>
-    <t>3.780,00</t>
-  </si>
-  <si>
-    <t>10.578,82</t>
-  </si>
-  <si>
-    <t>30.740,00</t>
-  </si>
-  <si>
-    <t>70.080,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>1.734,94</t>
-  </si>
-  <si>
-    <t>20.858,96</t>
-  </si>
-  <si>
-    <t>9.402,00</t>
-  </si>
-  <si>
-    <t>1.709,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>6.405,00</t>
-  </si>
-  <si>
-    <t>20.320,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>39.031,58</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>5.999,12</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>28.232,75</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>23.888,00</t>
-  </si>
-  <si>
-    <t>1.410,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>8.375,00</t>
-  </si>
-  <si>
-    <t>2.955,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>221,08</t>
-  </si>
-  <si>
-    <t>11.950,00</t>
-  </si>
-  <si>
-    <t>7.946,20</t>
-  </si>
-  <si>
-    <t>19.260,00</t>
-  </si>
-  <si>
-    <t>11.890,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>34,50</t>
-  </si>
-  <si>
-    <t>45.327,00</t>
-  </si>
-  <si>
-    <t>38.400,00</t>
-  </si>
-  <si>
-    <t>31,40</t>
-  </si>
-  <si>
-    <t>2.637,00</t>
-  </si>
-  <si>
-    <t>28.900,00</t>
-  </si>
-  <si>
-    <t>23.558,83</t>
-  </si>
-  <si>
-    <t>15.270,00</t>
-  </si>
-  <si>
-    <t>2.534,16</t>
-  </si>
-  <si>
-    <t>23.025,00</t>
-  </si>
-  <si>
-    <t>10.329,00</t>
-  </si>
-  <si>
-    <t>198,60</t>
-  </si>
-  <si>
-    <t>692,70</t>
-  </si>
-  <si>
-    <t>3.839,47</t>
-  </si>
-  <si>
-    <t>10.795,24</t>
-  </si>
-  <si>
-    <t>3.580,00</t>
-  </si>
-  <si>
-    <t>5.327,00</t>
-  </si>
-  <si>
-    <t>2.290,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>8.923,50</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>754,08</t>
-  </si>
-  <si>
-    <t>2.769,45</t>
-  </si>
-  <si>
-    <t>6.549,10</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>37.500,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>22.790,79</t>
-  </si>
-  <si>
-    <t>3.167.494,21</t>
-  </si>
-  <si>
-    <t>8.799,40</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>146.000,00</t>
-  </si>
-  <si>
-    <t>224.000,00</t>
-  </si>
-  <si>
-    <t>227.450,00</t>
-  </si>
-  <si>
-    <t>323.000,00</t>
-  </si>
-  <si>
-    <t>320.000,00</t>
-  </si>
-  <si>
-    <t>211.000,00</t>
-  </si>
-  <si>
-    <t>139.600,00</t>
-  </si>
-  <si>
-    <t>43.500,00</t>
-  </si>
-  <si>
-    <t>10.270,50</t>
-  </si>
-  <si>
-    <t>134.000,00</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>2.487.041,22</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>748,00</t>
-  </si>
-  <si>
-    <t>69.592,90</t>
-  </si>
-  <si>
-    <t>8.900,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>28.670,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>5770.00</t>
+  </si>
+  <si>
+    <t>23160.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>6195.00</t>
+  </si>
+  <si>
+    <t>548.00</t>
+  </si>
+  <si>
+    <t>5307.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>3535.00</t>
+  </si>
+  <si>
+    <t>3923.00</t>
+  </si>
+  <si>
+    <t>910103.20</t>
+  </si>
+  <si>
+    <t>468713.85</t>
+  </si>
+  <si>
+    <t>52513.95</t>
+  </si>
+  <si>
+    <t>8750.00</t>
+  </si>
+  <si>
+    <t>47335.00</t>
+  </si>
+  <si>
+    <t>1889.00</t>
+  </si>
+  <si>
+    <t>14640.00</t>
+  </si>
+  <si>
+    <t>16278.50</t>
+  </si>
+  <si>
+    <t>9104.05</t>
+  </si>
+  <si>
+    <t>91713.44</t>
+  </si>
+  <si>
+    <t>779.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>30848.63</t>
+  </si>
+  <si>
+    <t>19769.00</t>
+  </si>
+  <si>
+    <t>3640.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>1431.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>3140.00</t>
+  </si>
+  <si>
+    <t>107.85</t>
+  </si>
+  <si>
+    <t>41.90</t>
+  </si>
+  <si>
+    <t>10096.00</t>
+  </si>
+  <si>
+    <t>34690.94</t>
+  </si>
+  <si>
+    <t>40074.99</t>
+  </si>
+  <si>
+    <t>16366.53</t>
+  </si>
+  <si>
+    <t>217.14</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>12220.00</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>1924.50</t>
+  </si>
+  <si>
+    <t>9659.79</t>
+  </si>
+  <si>
+    <t>7098.00</t>
+  </si>
+  <si>
+    <t>2598.00</t>
+  </si>
+  <si>
+    <t>1674.00</t>
+  </si>
+  <si>
+    <t>19448.00</t>
+  </si>
+  <si>
+    <t>17454.40</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>38712.32</t>
+  </si>
+  <si>
+    <t>21.78</t>
+  </si>
+  <si>
+    <t>5977.76</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>1422.25</t>
+  </si>
+  <si>
+    <t>2140.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>7535.50</t>
+  </si>
+  <si>
+    <t>2110.24</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>404.20</t>
+  </si>
+  <si>
+    <t>864.08</t>
+  </si>
+  <si>
+    <t>179676.10</t>
+  </si>
+  <si>
+    <t>8403.75</t>
+  </si>
+  <si>
+    <t>16874.86</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>5887.94</t>
+  </si>
+  <si>
+    <t>393479.78</t>
+  </si>
+  <si>
+    <t>566.00</t>
+  </si>
+  <si>
+    <t>7783.00</t>
+  </si>
+  <si>
+    <t>3390.52</t>
+  </si>
+  <si>
+    <t>6040.00</t>
+  </si>
+  <si>
+    <t>74100.00</t>
+  </si>
+  <si>
+    <t>36028.00</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>15920.50</t>
+  </si>
+  <si>
+    <t>7154.00</t>
+  </si>
+  <si>
+    <t>2501.22</t>
+  </si>
+  <si>
+    <t>1356.75</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>903.48</t>
+  </si>
+  <si>
+    <t>16807.92</t>
+  </si>
+  <si>
+    <t>1172612.00</t>
+  </si>
+  <si>
+    <t>8660.00</t>
+  </si>
+  <si>
+    <t>7961.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>19810.00</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>11810.00</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2354.42</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>14908.98</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>558358.95</t>
+  </si>
+  <si>
+    <t>37745.32</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>43.44</t>
+  </si>
+  <si>
+    <t>25896.76</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>1178.80</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>42818.00</t>
+  </si>
+  <si>
+    <t>348.50</t>
+  </si>
+  <si>
+    <t>8089.87</t>
+  </si>
+  <si>
+    <t>13498.00</t>
+  </si>
+  <si>
+    <t>3187.80</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>1854.00</t>
+  </si>
+  <si>
+    <t>14607.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>15099.38</t>
+  </si>
+  <si>
+    <t>141137.32</t>
+  </si>
+  <si>
+    <t>531.00</t>
+  </si>
+  <si>
+    <t>7371.00</t>
+  </si>
+  <si>
+    <t>4813.00</t>
+  </si>
+  <si>
+    <t>7481.09</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>1041.00</t>
+  </si>
+  <si>
+    <t>2493.28</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>392.40</t>
+  </si>
+  <si>
+    <t>3945.00</t>
+  </si>
+  <si>
+    <t>251.16</t>
+  </si>
+  <si>
+    <t>436.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>398.31</t>
+  </si>
+  <si>
+    <t>7960.00</t>
+  </si>
+  <si>
+    <t>8910.00</t>
+  </si>
+  <si>
+    <t>3780.00</t>
+  </si>
+  <si>
+    <t>10578.82</t>
+  </si>
+  <si>
+    <t>30740.00</t>
+  </si>
+  <si>
+    <t>70080.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1734.94</t>
+  </si>
+  <si>
+    <t>20858.96</t>
+  </si>
+  <si>
+    <t>9402.00</t>
+  </si>
+  <si>
+    <t>1709.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>6405.00</t>
+  </si>
+  <si>
+    <t>20320.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>39031.58</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>5999.12</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>28232.75</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>23888.00</t>
+  </si>
+  <si>
+    <t>1410.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>8375.00</t>
+  </si>
+  <si>
+    <t>2955.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>221.08</t>
+  </si>
+  <si>
+    <t>11950.00</t>
+  </si>
+  <si>
+    <t>7946.20</t>
+  </si>
+  <si>
+    <t>19260.00</t>
+  </si>
+  <si>
+    <t>11890.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>45327.00</t>
+  </si>
+  <si>
+    <t>38400.00</t>
+  </si>
+  <si>
+    <t>31.40</t>
+  </si>
+  <si>
+    <t>2637.00</t>
+  </si>
+  <si>
+    <t>28900.00</t>
+  </si>
+  <si>
+    <t>23558.83</t>
+  </si>
+  <si>
+    <t>15270.00</t>
+  </si>
+  <si>
+    <t>2534.16</t>
+  </si>
+  <si>
+    <t>23025.00</t>
+  </si>
+  <si>
+    <t>10329.00</t>
+  </si>
+  <si>
+    <t>198.60</t>
+  </si>
+  <si>
+    <t>692.70</t>
+  </si>
+  <si>
+    <t>3839.47</t>
+  </si>
+  <si>
+    <t>10795.24</t>
+  </si>
+  <si>
+    <t>3580.00</t>
+  </si>
+  <si>
+    <t>5327.00</t>
+  </si>
+  <si>
+    <t>2290.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>8923.50</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>754.08</t>
+  </si>
+  <si>
+    <t>2769.45</t>
+  </si>
+  <si>
+    <t>6549.10</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>37500.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>22790.79</t>
+  </si>
+  <si>
+    <t>3167494.21</t>
+  </si>
+  <si>
+    <t>8799.40</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>146000.00</t>
+  </si>
+  <si>
+    <t>224000.00</t>
+  </si>
+  <si>
+    <t>227450.00</t>
+  </si>
+  <si>
+    <t>323000.00</t>
+  </si>
+  <si>
+    <t>320000.00</t>
+  </si>
+  <si>
+    <t>211000.00</t>
+  </si>
+  <si>
+    <t>139600.00</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>10270.50</t>
+  </si>
+  <si>
+    <t>134000.00</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>2487041.22</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>748.00</t>
+  </si>
+  <si>
+    <t>69592.90</t>
+  </si>
+  <si>
+    <t>8900.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>28670.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
   </si>
 </sst>
 </file>
